--- a/ANALYSIS/DATA/overview recordings/annotations - 2021.xlsx
+++ b/ANALYSIS/DATA/overview recordings/annotations - 2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/ownCloud/Simeon/MPI AB/PhD thesis/Chapter II/voice_paper/ANALYSIS/DATA/overview recordings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44901-8FCB-DC45-AD78-DC7B3D6AD482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB547DF4-2300-EA4B-8953-733D05D3C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="480" windowWidth="27240" windowHeight="16440" xr2:uid="{EFC0C2D4-51C6-CF4F-AE03-C10785A0E49C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19415" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19415" uniqueCount="1533">
   <si>
     <t>file</t>
   </si>
@@ -4625,6 +4625,12 @@
   </si>
   <si>
     <t>U48, U79, U52</t>
+  </si>
+  <si>
+    <t>2021_11_21_163744.wav</t>
+  </si>
+  <si>
+    <t>2021_11_22_131914.wav</t>
   </si>
 </sst>
 </file>
@@ -4999,8 +5005,8 @@
   <dimension ref="A1:N2731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2707" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2729" sqref="A2729:A2731"/>
+      <pane ySplit="1" topLeftCell="A2318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2337" sqref="A2337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70987,7 +70993,7 @@
     </row>
     <row r="2293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2293" t="s">
-        <v>1286</v>
+        <v>1531</v>
       </c>
       <c r="B2293">
         <v>1</v>
@@ -71016,7 +71022,7 @@
     </row>
     <row r="2294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2294" t="s">
-        <v>1286</v>
+        <v>1531</v>
       </c>
       <c r="B2294">
         <v>2</v>
@@ -71045,7 +71051,7 @@
     </row>
     <row r="2295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2295" t="s">
-        <v>1286</v>
+        <v>1531</v>
       </c>
       <c r="B2295">
         <v>3</v>
@@ -72116,7 +72122,7 @@
     </row>
     <row r="2336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2336" t="s">
-        <v>1313</v>
+        <v>1532</v>
       </c>
       <c r="B2336">
         <v>1</v>
@@ -72139,7 +72145,7 @@
     </row>
     <row r="2337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2337" t="s">
-        <v>1313</v>
+        <v>1532</v>
       </c>
       <c r="B2337">
         <v>2</v>

--- a/ANALYSIS/DATA/overview recordings/annotations - 2021.xlsx
+++ b/ANALYSIS/DATA/overview recordings/annotations - 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/ownCloud/Simeon/MPI AB/PhD thesis/Chapter II/voice_paper/ANALYSIS/DATA/overview recordings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB547DF4-2300-EA4B-8953-733D05D3C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68154850-F781-FD40-8D54-A3AFD7D7BEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="480" windowWidth="27240" windowHeight="16440" xr2:uid="{EFC0C2D4-51C6-CF4F-AE03-C10785A0E49C}"/>
   </bookViews>
@@ -5005,8 +5005,8 @@
   <dimension ref="A1:N2731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2337" sqref="A2337"/>
+      <pane ySplit="1" topLeftCell="A2162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2179" sqref="G2179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24831,7 +24831,7 @@
         <v>51</v>
       </c>
       <c r="G685" s="2" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="L685" t="s">
         <v>423</v>
@@ -40927,7 +40927,7 @@
         <v>65</v>
       </c>
       <c r="G1234" s="2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="H1234" s="2" t="s">
         <v>235</v>
@@ -52867,7 +52867,7 @@
         <v>56</v>
       </c>
       <c r="H1669" s="2" t="s">
-        <v>1084</v>
+        <v>57</v>
       </c>
       <c r="I1669">
         <v>1</v>
@@ -52905,10 +52905,10 @@
         <v>55</v>
       </c>
       <c r="G1670" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H1670" s="2" t="s">
-        <v>1084</v>
+        <v>57</v>
       </c>
       <c r="I1670">
         <v>1</v>
@@ -58344,7 +58344,7 @@
         <v>528</v>
       </c>
       <c r="G1854" s="2" t="s">
-        <v>117</v>
+        <v>409</v>
       </c>
       <c r="H1854" s="2" t="s">
         <v>235</v>
@@ -68067,7 +68067,7 @@
         <v>51</v>
       </c>
       <c r="G2178" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="L2178" t="s">
         <v>423</v>
